--- a/posesiones/1381308.xlsx
+++ b/posesiones/1381308.xlsx
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>10</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>21</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>17</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>9</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>9</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>27</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>16</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>15</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>9</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>18</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>21</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>24</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>12</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>11</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>28</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>4</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>24</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>19</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R81">
         <v>13</v>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R82">
         <v>12</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5849,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>15</v>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R85">
         <v>22</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R94">
         <v>11</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R95">
         <v>11</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>9</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R100">
         <v>6</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R102">
         <v>19</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>24</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>21</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R109">
         <v>15</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R111">
         <v>24</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>23</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>10</v>
@@ -7455,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7687,10 +7687,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7884,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R125">
         <v>24</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R128">
         <v>11</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R130">
         <v>5</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>17</v>
@@ -8240,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R132">
         <v>24</v>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R134">
         <v>20</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>6</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R138">
         <v>11</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R141">
         <v>16</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8975,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R147">
         <v>29</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R152">
         <v>24</v>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9416,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R156">
         <v>32</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9519,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>4</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R162">
         <v>14</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R169">
         <v>25</v>
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R170">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>27</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10492,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R178">
         <v>16</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10592,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>12</v>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R182">
         <v>4</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R184">
         <v>14</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R185">
         <v>23</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10948,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R187">
         <v>23</v>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R188">
         <v>12</v>
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R190">
         <v>11</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11304,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>29</v>
@@ -11357,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R195">
         <v>17</v>
@@ -11410,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R196">
         <v>25</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11836,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R205">
         <v>26</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11983,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R209">
         <v>29</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R210">
         <v>16</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R216">
         <v>20</v>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R218">
         <v>19</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12671,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R222">
         <v>13</v>
@@ -12715,10 +12715,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13229,10 +13229,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13476,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R239">
         <v>53</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13623,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>12</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R244">
         <v>26</v>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R246">
         <v>14</v>
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13923,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R251">
         <v>17</v>
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R253">
         <v>15</v>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R255">
         <v>22</v>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R257">
         <v>6</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14473,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14573,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R261">
         <v>4</v>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R263">
         <v>15</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R265">
         <v>19</v>
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14876,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R267">
         <v>15</v>
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R269">
         <v>13</v>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R272">
         <v>16</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>17</v>
@@ -15555,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R282">
         <v>17</v>
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15796,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15843,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15940,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R289">
         <v>12</v>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R290">
         <v>17</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16096,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R292">
         <v>11</v>
@@ -16146,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16243,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R299">
         <v>5</v>
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R300">
         <v>16</v>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R302">
         <v>18</v>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R305">
         <v>20</v>
@@ -16787,7 +16787,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16837,7 +16837,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>24</v>
@@ -16890,7 +16890,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16993,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R310">
         <v>23</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R312">
         <v>17</v>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17337,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>16</v>
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17578,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R322">
         <v>0</v>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17681,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R324">
         <v>16</v>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R326">
         <v>7</v>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17881,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R328">
         <v>18</v>
@@ -17934,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17984,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R330">
         <v>22</v>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R336">
         <v>13</v>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R338">
         <v>9</v>
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>19</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R343">
         <v>18</v>
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18716,10 +18716,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18854,10 +18854,10 @@
         <v>1</v>
       </c>
       <c r="P348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18907,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R349">
         <v>8</v>
@@ -18960,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R350">
         <v>14</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19060,7 +19060,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R352">
         <v>7</v>
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19160,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19210,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19260,7 +19260,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R356">
         <v>8</v>
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19404,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19454,7 +19454,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R360">
         <v>10</v>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19651,7 +19651,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R364">
         <v>24</v>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19845,7 +19845,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19898,7 +19898,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R369">
         <v>16</v>
@@ -19951,7 +19951,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R370">
         <v>0</v>
@@ -20001,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20145,7 +20145,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20195,7 +20195,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20248,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R376">
         <v>15</v>
@@ -20301,7 +20301,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20395,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20536,7 +20536,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20583,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20730,7 +20730,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R386">
         <v>22</v>
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20830,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20877,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20927,7 +20927,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R390">
         <v>22</v>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,7 +21168,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21215,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21262,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21453,7 +21453,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R401">
         <v>31</v>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21550,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21600,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R404">
         <v>32</v>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21700,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21800,7 +21800,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21897,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21944,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21991,7 +21991,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22088,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R414">
         <v>14</v>
@@ -22141,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R415">
         <v>9</v>
@@ -22191,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22238,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22382,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R420">
         <v>15</v>
@@ -22435,7 +22435,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R421">
         <v>15</v>
@@ -22488,7 +22488,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>17</v>
@@ -22541,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22732,7 +22732,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R427">
         <v>20</v>
@@ -22782,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22879,7 +22879,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R430">
         <v>22</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22976,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23070,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23120,7 +23120,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23173,7 +23173,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R436">
         <v>18</v>
@@ -23226,7 +23226,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R437">
         <v>15</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23423,7 +23423,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R441">
         <v>24</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23517,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23564,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23611,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23752,7 +23752,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R448">
         <v>22</v>
@@ -23802,7 +23802,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23849,7 +23849,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23899,7 +23899,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R451">
         <v>20</v>
@@ -23952,7 +23952,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R452">
         <v>12</v>
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24049,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24143,7 +24143,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24193,7 +24193,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R457">
         <v>26</v>
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24340,7 +24340,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R460">
         <v>9</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24540,7 +24540,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R464">
         <v>26</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24637,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24684,7 +24684,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24781,7 +24781,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24881,7 +24881,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24975,7 +24975,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25069,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25119,7 +25119,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R476">
         <v>11</v>
@@ -25172,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R477">
         <v>14</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25272,7 +25272,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R479">
         <v>10</v>
@@ -25322,7 +25322,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:17">
@@ -25363,10 +25363,10 @@
         <v>1</v>
       </c>
       <c r="P481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q481">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:17">
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
